--- a/docs/portlet config.xlsx
+++ b/docs/portlet config.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_AMO_UniqueIdentifier" hidden="1">"'11846921-0f44-42f3-805c-5aca0f0d44b9'"</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -195,39 +198,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -541,7 +516,7 @@
   <dimension ref="C2:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ26" sqref="AJ26"/>
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,29 +628,29 @@
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="6">
         <f>SUM(D4+F4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
         <f>E4</f>
         <v>1</v>
       </c>
       <c r="J4" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K4" s="8">
         <f>G4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4" si="0">SUM(H4+J4)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <f>E4</f>
@@ -686,11 +661,11 @@
       </c>
       <c r="O4" s="8">
         <f>G4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" ref="P4" si="1">SUM(L4+N4)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7">
         <f>E4</f>
@@ -701,11 +676,11 @@
       </c>
       <c r="S4" s="8">
         <f>G4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T4" s="6">
         <f t="shared" ref="T4" si="2">SUM(P4+R4)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U4" s="7">
         <f>E4</f>
@@ -716,11 +691,11 @@
       </c>
       <c r="W4" s="8">
         <f>G4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" ref="X4" si="3">SUM(T4+V4)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="7">
         <f>E4</f>
@@ -731,11 +706,11 @@
       </c>
       <c r="AA4" s="8">
         <f>G4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC4">
         <f>SUM(F4+J4+N4+R4+V4+Z4)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.25">
@@ -843,92 +818,92 @@
       </c>
       <c r="E8" s="7">
         <f>SUM(E4+G4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="10">
         <v>9</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:H10" si="4">SUM(D8+F8)</f>
-        <v>3</v>
+        <f t="shared" ref="H8" si="4">SUM(D8+F8)</f>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I10" si="5">E8</f>
-        <v>10</v>
+        <f t="shared" ref="I8" si="5">E8</f>
+        <v>11</v>
       </c>
       <c r="J8" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ref="K8:K10" si="6">G8</f>
+        <f t="shared" ref="K8" si="6">G8</f>
         <v>9</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:L10" si="7">SUM(H8+J8)</f>
-        <v>5</v>
+        <f t="shared" ref="L8" si="7">SUM(H8+J8)</f>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" ref="M8:M10" si="8">E8</f>
-        <v>10</v>
+        <f t="shared" ref="M8" si="8">E8</f>
+        <v>11</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" ref="O8:O10" si="9">G8</f>
+        <f t="shared" ref="O8" si="9">G8</f>
         <v>9</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:P10" si="10">SUM(L8+N8)</f>
-        <v>5</v>
+        <f t="shared" ref="P8" si="10">SUM(L8+N8)</f>
+        <v>13</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" ref="Q8:Q10" si="11">E8</f>
-        <v>10</v>
+        <f t="shared" ref="Q8" si="11">E8</f>
+        <v>11</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
       </c>
       <c r="S8" s="8">
-        <f t="shared" ref="S8:S10" si="12">G8</f>
+        <f t="shared" ref="S8" si="12">G8</f>
         <v>9</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" ref="T8:T10" si="13">SUM(P8+R8)</f>
-        <v>5</v>
+        <f t="shared" ref="T8" si="13">SUM(P8+R8)</f>
+        <v>13</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" ref="U8:U10" si="14">E8</f>
-        <v>10</v>
+        <f t="shared" ref="U8" si="14">E8</f>
+        <v>11</v>
       </c>
       <c r="V8" s="9">
         <v>0</v>
       </c>
       <c r="W8" s="8">
-        <f t="shared" ref="W8:W10" si="15">G8</f>
+        <f t="shared" ref="W8" si="15">G8</f>
         <v>9</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" ref="X8:X10" si="16">SUM(T8+V8)</f>
-        <v>5</v>
+        <f t="shared" ref="X8" si="16">SUM(T8+V8)</f>
+        <v>13</v>
       </c>
       <c r="Y8" s="7">
-        <f t="shared" ref="Y8:Y10" si="17">E8</f>
-        <v>10</v>
+        <f t="shared" ref="Y8" si="17">E8</f>
+        <v>11</v>
       </c>
       <c r="Z8" s="9">
         <v>0</v>
       </c>
       <c r="AA8" s="8">
-        <f t="shared" ref="AA8:AA10" si="18">G8</f>
+        <f t="shared" ref="AA8" si="18">G8</f>
         <v>9</v>
       </c>
       <c r="AC8">
-        <f t="shared" ref="AC8:AC10" si="19">SUM(F8+J8+N8+R8+V8+Z8)</f>
-        <v>4</v>
+        <f t="shared" ref="AC8" si="19">SUM(F8+J8+N8+R8+V8+Z8)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.25">
@@ -1034,92 +1009,92 @@
       </c>
       <c r="E12" s="7">
         <f>SUM(E8+G8)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="10">
         <v>9</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ref="H12:H13" si="20">SUM(D12+F12)</f>
-        <v>4</v>
+        <f t="shared" ref="H12" si="20">SUM(D12+F12)</f>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" ref="I12:I13" si="21">E12</f>
-        <v>19</v>
+        <f t="shared" ref="I12" si="21">E12</f>
+        <v>20</v>
       </c>
       <c r="J12" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ref="K12:K13" si="22">G12</f>
+        <f t="shared" ref="K12" si="22">G12</f>
         <v>9</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" ref="L12:L13" si="23">SUM(H12+J12)</f>
-        <v>6</v>
+        <f t="shared" ref="L12" si="23">SUM(H12+J12)</f>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M13" si="24">E12</f>
-        <v>19</v>
+        <f t="shared" ref="M12" si="24">E12</f>
+        <v>20</v>
       </c>
       <c r="N12" s="9">
         <v>0</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" ref="O12:O13" si="25">G12</f>
+        <f t="shared" ref="O12" si="25">G12</f>
         <v>9</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" ref="P12:P13" si="26">SUM(L12+N12)</f>
-        <v>6</v>
+        <f t="shared" ref="P12" si="26">SUM(L12+N12)</f>
+        <v>14</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" ref="Q12:Q13" si="27">E12</f>
-        <v>19</v>
+        <f t="shared" ref="Q12" si="27">E12</f>
+        <v>20</v>
       </c>
       <c r="R12" s="9">
         <v>0</v>
       </c>
       <c r="S12" s="8">
-        <f t="shared" ref="S12:S13" si="28">G12</f>
+        <f t="shared" ref="S12" si="28">G12</f>
         <v>9</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" ref="T12:T13" si="29">SUM(P12+R12)</f>
-        <v>6</v>
+        <f t="shared" ref="T12" si="29">SUM(P12+R12)</f>
+        <v>14</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" ref="U12:U13" si="30">E12</f>
-        <v>19</v>
+        <f t="shared" ref="U12" si="30">E12</f>
+        <v>20</v>
       </c>
       <c r="V12" s="9">
         <v>0</v>
       </c>
       <c r="W12" s="8">
-        <f t="shared" ref="W12:W13" si="31">G12</f>
+        <f t="shared" ref="W12" si="31">G12</f>
         <v>9</v>
       </c>
       <c r="X12" s="6">
-        <f t="shared" ref="X12:X13" si="32">SUM(T12+V12)</f>
-        <v>6</v>
+        <f t="shared" ref="X12" si="32">SUM(T12+V12)</f>
+        <v>14</v>
       </c>
       <c r="Y12" s="7">
-        <f t="shared" ref="Y12:Y13" si="33">E12</f>
-        <v>19</v>
+        <f t="shared" ref="Y12" si="33">E12</f>
+        <v>20</v>
       </c>
       <c r="Z12" s="9">
         <v>0</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA13" si="34">G12</f>
+        <f t="shared" ref="AA12" si="34">G12</f>
         <v>9</v>
       </c>
       <c r="AC12">
-        <f t="shared" ref="AC12:AC13" si="35">SUM(F12+J12+N12+R12+V12+Z12)</f>
-        <v>4</v>
+        <f t="shared" ref="AC12" si="35">SUM(F12+J12+N12+R12+V12+Z12)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.25">
@@ -1225,7 +1200,7 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" ref="E16" si="36">SUM(E12+G12)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
@@ -1234,82 +1209,82 @@
         <v>9</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:H33" si="37">SUM(D16+F16)</f>
+        <f t="shared" ref="H16" si="37">SUM(D16+F16)</f>
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" ref="I16:I33" si="38">E16</f>
-        <v>28</v>
+        <f t="shared" ref="I16" si="38">E16</f>
+        <v>29</v>
       </c>
       <c r="J16" s="9">
         <v>2</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ref="K16:K33" si="39">G16</f>
+        <f t="shared" ref="K16" si="39">G16</f>
         <v>9</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" ref="L16:L33" si="40">SUM(H16+J16)</f>
+        <f t="shared" ref="L16" si="40">SUM(H16+J16)</f>
         <v>6</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" ref="M16:M33" si="41">E16</f>
-        <v>28</v>
+        <f t="shared" ref="M16" si="41">E16</f>
+        <v>29</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O33" si="42">G16</f>
+        <f t="shared" ref="O16" si="42">G16</f>
         <v>9</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" ref="P16:P33" si="43">SUM(L16+N16)</f>
+        <f t="shared" ref="P16" si="43">SUM(L16+N16)</f>
         <v>6</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" ref="Q16:Q33" si="44">E16</f>
-        <v>28</v>
+        <f t="shared" ref="Q16" si="44">E16</f>
+        <v>29</v>
       </c>
       <c r="R16" s="9">
         <v>0</v>
       </c>
       <c r="S16" s="8">
-        <f t="shared" ref="S16:S33" si="45">G16</f>
+        <f t="shared" ref="S16" si="45">G16</f>
         <v>9</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" ref="T16:T33" si="46">SUM(P16+R16)</f>
+        <f t="shared" ref="T16" si="46">SUM(P16+R16)</f>
         <v>6</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" ref="U16:U33" si="47">E16</f>
-        <v>28</v>
+        <f t="shared" ref="U16" si="47">E16</f>
+        <v>29</v>
       </c>
       <c r="V16" s="9">
         <v>0</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" ref="W16:W33" si="48">G16</f>
+        <f t="shared" ref="W16" si="48">G16</f>
         <v>9</v>
       </c>
       <c r="X16" s="6">
-        <f t="shared" ref="X16:X33" si="49">SUM(T16+V16)</f>
+        <f t="shared" ref="X16" si="49">SUM(T16+V16)</f>
         <v>6</v>
       </c>
       <c r="Y16" s="7">
-        <f t="shared" ref="Y16:Y33" si="50">E16</f>
-        <v>28</v>
+        <f t="shared" ref="Y16" si="50">E16</f>
+        <v>29</v>
       </c>
       <c r="Z16" s="9">
         <v>0</v>
       </c>
       <c r="AA16" s="8">
-        <f t="shared" ref="AA16:AA33" si="51">G16</f>
+        <f t="shared" ref="AA16" si="51">G16</f>
         <v>9</v>
       </c>
       <c r="AC16">
-        <f t="shared" ref="AC16:AC33" si="52">SUM(F16+J16+N16+R16+V16+Z16)</f>
+        <f t="shared" ref="AC16" si="52">SUM(F16+J16+N16+R16+V16+Z16)</f>
         <v>4</v>
       </c>
     </row>
@@ -1416,7 +1391,7 @@
       </c>
       <c r="E20" s="7">
         <f t="shared" ref="E20" si="53">SUM(E16+G16)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="9">
         <v>2</v>
@@ -1425,82 +1400,82 @@
         <v>9</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:H33" si="54">SUM(D20+F20)</f>
+        <f t="shared" ref="H20" si="54">SUM(D20+F20)</f>
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" ref="I20:I33" si="55">E20</f>
-        <v>37</v>
+        <f t="shared" ref="I20" si="55">E20</f>
+        <v>38</v>
       </c>
       <c r="J20" s="9">
         <v>2</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20:K33" si="56">G20</f>
+        <f t="shared" ref="K20" si="56">G20</f>
         <v>9</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20:L33" si="57">SUM(H20+J20)</f>
+        <f t="shared" ref="L20" si="57">SUM(H20+J20)</f>
         <v>7</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ref="M20:M33" si="58">E20</f>
-        <v>37</v>
+        <f t="shared" ref="M20" si="58">E20</f>
+        <v>38</v>
       </c>
       <c r="N20" s="9">
         <v>0</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" ref="O20:O33" si="59">G20</f>
+        <f t="shared" ref="O20" si="59">G20</f>
         <v>9</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:P33" si="60">SUM(L20+N20)</f>
+        <f t="shared" ref="P20" si="60">SUM(L20+N20)</f>
         <v>7</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" ref="Q20:Q33" si="61">E20</f>
-        <v>37</v>
+        <f t="shared" ref="Q20" si="61">E20</f>
+        <v>38</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" ref="S20:S33" si="62">G20</f>
+        <f t="shared" ref="S20" si="62">G20</f>
         <v>9</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" ref="T20:T33" si="63">SUM(P20+R20)</f>
+        <f t="shared" ref="T20" si="63">SUM(P20+R20)</f>
         <v>7</v>
       </c>
       <c r="U20" s="7">
-        <f t="shared" ref="U20:U33" si="64">E20</f>
-        <v>37</v>
+        <f t="shared" ref="U20" si="64">E20</f>
+        <v>38</v>
       </c>
       <c r="V20" s="9">
         <v>0</v>
       </c>
       <c r="W20" s="8">
-        <f t="shared" ref="W20:W33" si="65">G20</f>
+        <f t="shared" ref="W20" si="65">G20</f>
         <v>9</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ref="X20:X33" si="66">SUM(T20+V20)</f>
+        <f t="shared" ref="X20" si="66">SUM(T20+V20)</f>
         <v>7</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" ref="Y20:Y33" si="67">E20</f>
-        <v>37</v>
+        <f t="shared" ref="Y20" si="67">E20</f>
+        <v>38</v>
       </c>
       <c r="Z20" s="9">
         <v>0</v>
       </c>
       <c r="AA20" s="8">
-        <f t="shared" ref="AA20:AA33" si="68">G20</f>
+        <f t="shared" ref="AA20" si="68">G20</f>
         <v>9</v>
       </c>
       <c r="AC20">
-        <f t="shared" ref="AC20:AC33" si="69">SUM(F20+J20+N20+R20+V20+Z20)</f>
+        <f t="shared" ref="AC20" si="69">SUM(F20+J20+N20+R20+V20+Z20)</f>
         <v>4</v>
       </c>
     </row>
@@ -1607,7 +1582,7 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" ref="E24" si="70">SUM(E20+G20)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="9">
         <v>2</v>
@@ -1616,82 +1591,82 @@
         <v>9</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:H33" si="71">SUM(D24+F24)</f>
+        <f t="shared" ref="H24" si="71">SUM(D24+F24)</f>
         <v>5</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" ref="I24:I33" si="72">E24</f>
-        <v>46</v>
+        <f t="shared" ref="I24" si="72">E24</f>
+        <v>47</v>
       </c>
       <c r="J24" s="9">
         <v>2</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ref="K24:K33" si="73">G24</f>
+        <f t="shared" ref="K24" si="73">G24</f>
         <v>9</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" ref="L24:L33" si="74">SUM(H24+J24)</f>
+        <f t="shared" ref="L24" si="74">SUM(H24+J24)</f>
         <v>7</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" ref="M24:M33" si="75">E24</f>
-        <v>46</v>
+        <f t="shared" ref="M24" si="75">E24</f>
+        <v>47</v>
       </c>
       <c r="N24" s="9">
         <v>0</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" ref="O24:O33" si="76">G24</f>
+        <f t="shared" ref="O24" si="76">G24</f>
         <v>9</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" ref="P24:P33" si="77">SUM(L24+N24)</f>
+        <f t="shared" ref="P24" si="77">SUM(L24+N24)</f>
         <v>7</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" ref="Q24:Q33" si="78">E24</f>
-        <v>46</v>
+        <f t="shared" ref="Q24" si="78">E24</f>
+        <v>47</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" ref="S24:S33" si="79">G24</f>
+        <f t="shared" ref="S24" si="79">G24</f>
         <v>9</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" ref="T24:T33" si="80">SUM(P24+R24)</f>
+        <f t="shared" ref="T24" si="80">SUM(P24+R24)</f>
         <v>7</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" ref="U24:U33" si="81">E24</f>
-        <v>46</v>
+        <f t="shared" ref="U24" si="81">E24</f>
+        <v>47</v>
       </c>
       <c r="V24" s="9">
         <v>0</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" ref="W24:W33" si="82">G24</f>
+        <f t="shared" ref="W24" si="82">G24</f>
         <v>9</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" ref="X24:X33" si="83">SUM(T24+V24)</f>
+        <f t="shared" ref="X24" si="83">SUM(T24+V24)</f>
         <v>7</v>
       </c>
       <c r="Y24" s="7">
-        <f t="shared" ref="Y24:Y33" si="84">E24</f>
-        <v>46</v>
+        <f t="shared" ref="Y24" si="84">E24</f>
+        <v>47</v>
       </c>
       <c r="Z24" s="9">
         <v>0</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" ref="AA24:AA33" si="85">G24</f>
+        <f t="shared" ref="AA24" si="85">G24</f>
         <v>9</v>
       </c>
       <c r="AC24">
-        <f t="shared" ref="AC24:AC33" si="86">SUM(F24+J24+N24+R24+V24+Z24)</f>
+        <f t="shared" ref="AC24" si="86">SUM(F24+J24+N24+R24+V24+Z24)</f>
         <v>4</v>
       </c>
     </row>
@@ -1798,7 +1773,7 @@
       </c>
       <c r="E28" s="7">
         <f t="shared" ref="E28" si="87">SUM(E24+G24)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="9">
         <v>2</v>
@@ -1807,82 +1782,82 @@
         <v>9</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:H33" si="88">SUM(D28+F28)</f>
+        <f t="shared" ref="H28" si="88">SUM(D28+F28)</f>
         <v>6</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" ref="I28:I33" si="89">E28</f>
-        <v>55</v>
+        <f t="shared" ref="I28" si="89">E28</f>
+        <v>56</v>
       </c>
       <c r="J28" s="9">
         <v>2</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" ref="K28:K33" si="90">G28</f>
+        <f t="shared" ref="K28" si="90">G28</f>
         <v>9</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" ref="L28:L33" si="91">SUM(H28+J28)</f>
+        <f t="shared" ref="L28" si="91">SUM(H28+J28)</f>
         <v>8</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" ref="M28:M33" si="92">E28</f>
-        <v>55</v>
+        <f t="shared" ref="M28" si="92">E28</f>
+        <v>56</v>
       </c>
       <c r="N28" s="9">
         <v>0</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" ref="O28:O33" si="93">G28</f>
+        <f t="shared" ref="O28" si="93">G28</f>
         <v>9</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" ref="P28:P33" si="94">SUM(L28+N28)</f>
+        <f t="shared" ref="P28" si="94">SUM(L28+N28)</f>
         <v>8</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" ref="Q28:Q33" si="95">E28</f>
-        <v>55</v>
+        <f t="shared" ref="Q28" si="95">E28</f>
+        <v>56</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
       </c>
       <c r="S28" s="8">
-        <f t="shared" ref="S28:S33" si="96">G28</f>
+        <f t="shared" ref="S28" si="96">G28</f>
         <v>9</v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" ref="T28:T33" si="97">SUM(P28+R28)</f>
+        <f t="shared" ref="T28" si="97">SUM(P28+R28)</f>
         <v>8</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" ref="U28:U33" si="98">E28</f>
-        <v>55</v>
+        <f t="shared" ref="U28" si="98">E28</f>
+        <v>56</v>
       </c>
       <c r="V28" s="9">
         <v>0</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" ref="W28:W33" si="99">G28</f>
+        <f t="shared" ref="W28" si="99">G28</f>
         <v>9</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" ref="X28:X33" si="100">SUM(T28+V28)</f>
+        <f t="shared" ref="X28" si="100">SUM(T28+V28)</f>
         <v>8</v>
       </c>
       <c r="Y28" s="7">
-        <f t="shared" ref="Y28:Y33" si="101">E28</f>
-        <v>55</v>
+        <f t="shared" ref="Y28" si="101">E28</f>
+        <v>56</v>
       </c>
       <c r="Z28" s="9">
         <v>0</v>
       </c>
       <c r="AA28" s="8">
-        <f t="shared" ref="AA28:AA33" si="102">G28</f>
+        <f t="shared" ref="AA28" si="102">G28</f>
         <v>9</v>
       </c>
       <c r="AC28">
-        <f t="shared" ref="AC28:AC33" si="103">SUM(F28+J28+N28+R28+V28+Z28)</f>
+        <f t="shared" ref="AC28" si="103">SUM(F28+J28+N28+R28+V28+Z28)</f>
         <v>4</v>
       </c>
     </row>
@@ -1989,7 +1964,7 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" ref="E32" si="104">SUM(E28+G28)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="9">
         <v>2</v>
@@ -1998,88 +1973,93 @@
         <v>9</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:H33" si="105">SUM(D32+F32)</f>
+        <f t="shared" ref="H32" si="105">SUM(D32+F32)</f>
         <v>6</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" ref="I32:I33" si="106">E32</f>
-        <v>64</v>
+        <f t="shared" ref="I32" si="106">E32</f>
+        <v>65</v>
       </c>
       <c r="J32" s="9">
         <v>2</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" ref="K32:K33" si="107">G32</f>
+        <f t="shared" ref="K32" si="107">G32</f>
         <v>9</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ref="L32:L33" si="108">SUM(H32+J32)</f>
+        <f t="shared" ref="L32" si="108">SUM(H32+J32)</f>
         <v>8</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" ref="M32:M33" si="109">E32</f>
-        <v>64</v>
+        <f t="shared" ref="M32" si="109">E32</f>
+        <v>65</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" ref="O32:O33" si="110">G32</f>
+        <f t="shared" ref="O32" si="110">G32</f>
         <v>9</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:P33" si="111">SUM(L32+N32)</f>
+        <f t="shared" ref="P32" si="111">SUM(L32+N32)</f>
         <v>8</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" ref="Q32:Q33" si="112">E32</f>
-        <v>64</v>
+        <f t="shared" ref="Q32" si="112">E32</f>
+        <v>65</v>
       </c>
       <c r="R32" s="9">
         <v>0</v>
       </c>
       <c r="S32" s="8">
-        <f t="shared" ref="S32:S33" si="113">G32</f>
+        <f t="shared" ref="S32" si="113">G32</f>
         <v>9</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" ref="T32:T33" si="114">SUM(P32+R32)</f>
+        <f t="shared" ref="T32" si="114">SUM(P32+R32)</f>
         <v>8</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" ref="U32:U33" si="115">E32</f>
-        <v>64</v>
+        <f t="shared" ref="U32" si="115">E32</f>
+        <v>65</v>
       </c>
       <c r="V32" s="9">
         <v>0</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" ref="W32:W33" si="116">G32</f>
+        <f t="shared" ref="W32" si="116">G32</f>
         <v>9</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" ref="X32:X33" si="117">SUM(T32+V32)</f>
+        <f t="shared" ref="X32" si="117">SUM(T32+V32)</f>
         <v>8</v>
       </c>
       <c r="Y32" s="7">
-        <f t="shared" ref="Y32:Y33" si="118">E32</f>
-        <v>64</v>
+        <f t="shared" ref="Y32" si="118">E32</f>
+        <v>65</v>
       </c>
       <c r="Z32" s="9">
         <v>0</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" ref="AA32:AA33" si="119">G32</f>
+        <f t="shared" ref="AA32" si="119">G32</f>
         <v>9</v>
       </c>
       <c r="AC32">
-        <f t="shared" ref="AC32:AC33" si="120">SUM(F32+J32+N32+R32+V32+Z32)</f>
+        <f t="shared" ref="AC32" si="120">SUM(F32+J32+N32+R32+V32+Z32)</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC4 AC8 AC12 AC16 AC24 AC32 AC20 AC28">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC1:AC1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
